--- a/FA18/MA122/attendance122011.xlsx
+++ b/FA18/MA122/attendance122011.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11014"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\Documents\Teaching\FA18\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eseprimo/Dropbox/Documents/Teaching/FA18/MA122/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DE03B4-E88D-664C-BEF4-3864ADE81834}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23340" windowHeight="14085"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23340" windowHeight="14080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gc_MATH122-011-FALL-2018_studin" sheetId="1" r:id="rId1"/>
@@ -465,7 +466,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -783,7 +784,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -913,6 +914,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -958,10 +972,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1282,69 +1300,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:P77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="C1:P1"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="10" max="16" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2">
-        <v>43342</v>
+        <v>43405</v>
       </c>
       <c r="D1" s="2">
-        <v>43347</v>
+        <v>43417</v>
       </c>
       <c r="E1" s="2">
-        <v>43349</v>
+        <v>43419</v>
       </c>
       <c r="F1" s="2">
-        <v>43354</v>
+        <v>43431</v>
       </c>
       <c r="G1" s="2">
-        <v>43356</v>
+        <v>43433</v>
       </c>
       <c r="H1" s="2">
-        <v>43361</v>
-      </c>
-      <c r="I1" s="2">
-        <v>43368</v>
-      </c>
-      <c r="J1" s="2">
-        <v>43370</v>
-      </c>
-      <c r="K1" s="2">
-        <v>43375</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43377</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43382</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43384</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43396</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43398</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>43438</v>
+      </c>
+      <c r="I1" s="4">
+        <v>43440</v>
+      </c>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+    </row>
+    <row r="2" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1357,16 +1362,9 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-    </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1379,16 +1377,9 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1401,16 +1392,9 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-    </row>
-    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1423,16 +1407,9 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-    </row>
-    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1445,16 +1422,9 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-    </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1467,16 +1437,9 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-    </row>
-    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1489,16 +1452,9 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-    </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1511,16 +1467,9 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-    </row>
-    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -1533,16 +1482,9 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-    </row>
-    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -1555,16 +1497,9 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-    </row>
-    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1577,16 +1512,9 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-    </row>
-    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -1599,16 +1527,9 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-    </row>
-    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -1621,16 +1542,9 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-    </row>
-    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -1643,16 +1557,9 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-    </row>
-    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -1665,16 +1572,9 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-    </row>
-    <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
@@ -1687,16 +1587,9 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-    </row>
-    <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
@@ -1709,16 +1602,9 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-    </row>
-    <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
@@ -1731,16 +1617,9 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-    </row>
-    <row r="20" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
@@ -1753,16 +1632,9 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-    </row>
-    <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
@@ -1775,16 +1647,9 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-    </row>
-    <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
@@ -1797,16 +1662,9 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-    </row>
-    <row r="23" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>41</v>
       </c>
@@ -1819,16 +1677,9 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-    </row>
-    <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>43</v>
       </c>
@@ -1841,16 +1692,9 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-    </row>
-    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>45</v>
       </c>
@@ -1863,16 +1707,9 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-    </row>
-    <row r="26" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>47</v>
       </c>
@@ -1885,16 +1722,9 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-    </row>
-    <row r="27" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>49</v>
       </c>
@@ -1907,16 +1737,9 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-    </row>
-    <row r="28" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>51</v>
       </c>
@@ -1929,16 +1752,9 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-    </row>
-    <row r="29" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>53</v>
       </c>
@@ -1951,16 +1767,9 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-    </row>
-    <row r="30" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>55</v>
       </c>
@@ -1973,16 +1782,9 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-    </row>
-    <row r="31" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>57</v>
       </c>
@@ -1995,16 +1797,9 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-    </row>
-    <row r="32" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>59</v>
       </c>
@@ -2017,16 +1812,9 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-    </row>
-    <row r="33" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
@@ -2039,16 +1827,9 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-    </row>
-    <row r="34" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>63</v>
       </c>
@@ -2061,16 +1842,9 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-    </row>
-    <row r="35" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>65</v>
       </c>
@@ -2083,16 +1857,9 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-    </row>
-    <row r="36" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>67</v>
       </c>
@@ -2105,16 +1872,9 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-    </row>
-    <row r="37" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>69</v>
       </c>
@@ -2127,16 +1887,9 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-    </row>
-    <row r="38" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>71</v>
       </c>
@@ -2149,16 +1902,9 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-    </row>
-    <row r="39" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>73</v>
       </c>
@@ -2171,16 +1917,9 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-    </row>
-    <row r="40" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>75</v>
       </c>
@@ -2193,16 +1932,9 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-    </row>
-    <row r="41" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>76</v>
       </c>
@@ -2215,16 +1947,9 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-    </row>
-    <row r="42" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I41" s="5"/>
+    </row>
+    <row r="42" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>78</v>
       </c>
@@ -2237,16 +1962,9 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-    </row>
-    <row r="43" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>79</v>
       </c>
@@ -2259,16 +1977,9 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-    </row>
-    <row r="44" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>81</v>
       </c>
@@ -2281,16 +1992,9 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-    </row>
-    <row r="45" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>83</v>
       </c>
@@ -2303,16 +2007,9 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-    </row>
-    <row r="46" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I45" s="5"/>
+    </row>
+    <row r="46" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>85</v>
       </c>
@@ -2325,16 +2022,9 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-    </row>
-    <row r="47" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I46" s="5"/>
+    </row>
+    <row r="47" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>87</v>
       </c>
@@ -2347,16 +2037,9 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-    </row>
-    <row r="48" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I47" s="5"/>
+    </row>
+    <row r="48" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>89</v>
       </c>
@@ -2369,16 +2052,9 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-    </row>
-    <row r="49" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I48" s="5"/>
+    </row>
+    <row r="49" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>91</v>
       </c>
@@ -2391,16 +2067,9 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-    </row>
-    <row r="50" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I49" s="5"/>
+    </row>
+    <row r="50" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>93</v>
       </c>
@@ -2413,16 +2082,9 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="1"/>
-    </row>
-    <row r="51" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I50" s="5"/>
+    </row>
+    <row r="51" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>95</v>
       </c>
@@ -2435,16 +2097,9 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
-    </row>
-    <row r="52" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I51" s="5"/>
+    </row>
+    <row r="52" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>97</v>
       </c>
@@ -2457,16 +2112,9 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-      <c r="O52" s="1"/>
-      <c r="P52" s="1"/>
-    </row>
-    <row r="53" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I52" s="5"/>
+    </row>
+    <row r="53" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>99</v>
       </c>
@@ -2479,16 +2127,9 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-      <c r="O53" s="1"/>
-      <c r="P53" s="1"/>
-    </row>
-    <row r="54" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I53" s="5"/>
+    </row>
+    <row r="54" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>100</v>
       </c>
@@ -2501,16 +2142,9 @@
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
-      <c r="P54" s="1"/>
-    </row>
-    <row r="55" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I54" s="5"/>
+    </row>
+    <row r="55" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>102</v>
       </c>
@@ -2523,16 +2157,9 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
-      <c r="O55" s="1"/>
-      <c r="P55" s="1"/>
-    </row>
-    <row r="56" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I55" s="5"/>
+    </row>
+    <row r="56" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>104</v>
       </c>
@@ -2545,16 +2172,9 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
-      <c r="P56" s="1"/>
-    </row>
-    <row r="57" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I56" s="5"/>
+    </row>
+    <row r="57" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>106</v>
       </c>
@@ -2567,16 +2187,9 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
-      <c r="O57" s="1"/>
-      <c r="P57" s="1"/>
-    </row>
-    <row r="58" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I57" s="5"/>
+    </row>
+    <row r="58" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>108</v>
       </c>
@@ -2589,16 +2202,9 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
-      <c r="O58" s="1"/>
-      <c r="P58" s="1"/>
-    </row>
-    <row r="59" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I58" s="5"/>
+    </row>
+    <row r="59" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>110</v>
       </c>
@@ -2611,16 +2217,9 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
-      <c r="P59" s="1"/>
-    </row>
-    <row r="60" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I59" s="5"/>
+    </row>
+    <row r="60" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>112</v>
       </c>
@@ -2633,16 +2232,9 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
-      <c r="P60" s="1"/>
-    </row>
-    <row r="61" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I60" s="5"/>
+    </row>
+    <row r="61" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>114</v>
       </c>
@@ -2655,16 +2247,9 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
-      <c r="N61" s="1"/>
-      <c r="O61" s="1"/>
-      <c r="P61" s="1"/>
-    </row>
-    <row r="62" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I61" s="5"/>
+    </row>
+    <row r="62" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>116</v>
       </c>
@@ -2677,16 +2262,9 @@
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
-      <c r="N62" s="1"/>
-      <c r="O62" s="1"/>
-      <c r="P62" s="1"/>
-    </row>
-    <row r="63" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I62" s="5"/>
+    </row>
+    <row r="63" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>118</v>
       </c>
@@ -2699,16 +2277,9 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-      <c r="L63" s="1"/>
-      <c r="M63" s="1"/>
-      <c r="N63" s="1"/>
-      <c r="O63" s="1"/>
-      <c r="P63" s="1"/>
-    </row>
-    <row r="64" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I63" s="5"/>
+    </row>
+    <row r="64" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>120</v>
       </c>
@@ -2721,16 +2292,9 @@
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-      <c r="L64" s="1"/>
-      <c r="M64" s="1"/>
-      <c r="N64" s="1"/>
-      <c r="O64" s="1"/>
-      <c r="P64" s="1"/>
-    </row>
-    <row r="65" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I64" s="5"/>
+    </row>
+    <row r="65" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>122</v>
       </c>
@@ -2743,16 +2307,9 @@
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
-      <c r="L65" s="1"/>
-      <c r="M65" s="1"/>
-      <c r="N65" s="1"/>
-      <c r="O65" s="1"/>
-      <c r="P65" s="1"/>
-    </row>
-    <row r="66" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I65" s="5"/>
+    </row>
+    <row r="66" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>124</v>
       </c>
@@ -2765,16 +2322,9 @@
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
-      <c r="O66" s="1"/>
-      <c r="P66" s="1"/>
-    </row>
-    <row r="67" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I66" s="5"/>
+    </row>
+    <row r="67" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>126</v>
       </c>
@@ -2787,16 +2337,9 @@
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
-      <c r="M67" s="1"/>
-      <c r="N67" s="1"/>
-      <c r="O67" s="1"/>
-      <c r="P67" s="1"/>
-    </row>
-    <row r="68" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I67" s="5"/>
+    </row>
+    <row r="68" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>128</v>
       </c>
@@ -2809,16 +2352,9 @@
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
-      <c r="N68" s="1"/>
-      <c r="O68" s="1"/>
-      <c r="P68" s="1"/>
-    </row>
-    <row r="69" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I68" s="5"/>
+    </row>
+    <row r="69" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>130</v>
       </c>
@@ -2831,16 +2367,9 @@
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="1"/>
-      <c r="L69" s="1"/>
-      <c r="M69" s="1"/>
-      <c r="N69" s="1"/>
-      <c r="O69" s="1"/>
-      <c r="P69" s="1"/>
-    </row>
-    <row r="70" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I69" s="5"/>
+    </row>
+    <row r="70" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>132</v>
       </c>
@@ -2853,16 +2382,9 @@
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
-      <c r="N70" s="1"/>
-      <c r="O70" s="1"/>
-      <c r="P70" s="1"/>
-    </row>
-    <row r="71" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I70" s="5"/>
+    </row>
+    <row r="71" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>134</v>
       </c>
@@ -2875,16 +2397,9 @@
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-      <c r="K71" s="1"/>
-      <c r="L71" s="1"/>
-      <c r="M71" s="1"/>
-      <c r="N71" s="1"/>
-      <c r="O71" s="1"/>
-      <c r="P71" s="1"/>
-    </row>
-    <row r="72" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I71" s="5"/>
+    </row>
+    <row r="72" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>136</v>
       </c>
@@ -2897,16 +2412,9 @@
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
-      <c r="L72" s="1"/>
-      <c r="M72" s="1"/>
-      <c r="N72" s="1"/>
-      <c r="O72" s="1"/>
-      <c r="P72" s="1"/>
-    </row>
-    <row r="73" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I72" s="5"/>
+    </row>
+    <row r="73" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>138</v>
       </c>
@@ -2919,16 +2427,9 @@
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-      <c r="L73" s="1"/>
-      <c r="M73" s="1"/>
-      <c r="N73" s="1"/>
-      <c r="O73" s="1"/>
-      <c r="P73" s="1"/>
-    </row>
-    <row r="74" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I73" s="5"/>
+    </row>
+    <row r="74" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>140</v>
       </c>
@@ -2941,16 +2442,9 @@
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
-      <c r="M74" s="1"/>
-      <c r="N74" s="1"/>
-      <c r="O74" s="1"/>
-      <c r="P74" s="1"/>
-    </row>
-    <row r="75" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I74" s="5"/>
+    </row>
+    <row r="75" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>142</v>
       </c>
@@ -2963,16 +2457,9 @@
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
-      <c r="L75" s="1"/>
-      <c r="M75" s="1"/>
-      <c r="N75" s="1"/>
-      <c r="O75" s="1"/>
-      <c r="P75" s="1"/>
-    </row>
-    <row r="76" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I75" s="5"/>
+    </row>
+    <row r="76" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>144</v>
       </c>
@@ -2985,16 +2472,9 @@
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
-      <c r="L76" s="1"/>
-      <c r="M76" s="1"/>
-      <c r="N76" s="1"/>
-      <c r="O76" s="1"/>
-      <c r="P76" s="1"/>
-    </row>
-    <row r="77" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I76" s="5"/>
+    </row>
+    <row r="77" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>146</v>
       </c>
@@ -3007,14 +2487,7 @@
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
-      <c r="M77" s="1"/>
-      <c r="N77" s="1"/>
-      <c r="O77" s="1"/>
-      <c r="P77" s="1"/>
+      <c r="I77" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
